--- a/02.crawler/03.eBay/2.Search/1.page.xlsx
+++ b/02.crawler/03.eBay/2.Search/1.page.xlsx
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -461,14 +461,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -476,14 +476,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=2</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=2</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -491,7 +491,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.ebay.com.au/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=goodstate&amp;store_name=goodstate&amp;_oac=1&amp;_nkw=blower%20motor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=AU&amp;_stpos=2019&amp;_pgn=3</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=3</t>
         </is>
       </c>
     </row>

--- a/02.crawler/03.eBay/2.Search/1.page.xlsx
+++ b/02.crawler/03.eBay/2.Search/1.page.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=eccppautoparts&amp;store_name=eccppautoparts&amp;_oac=1&amp;_nkw=ac%20compressor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
         </is>
       </c>
     </row>
@@ -476,7 +476,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=2</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=eccppautoparts&amp;store_name=eccppautoparts&amp;_oac=1&amp;_nkw=ac%20compressor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=2</t>
         </is>
       </c>
     </row>
@@ -491,7 +491,37 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=funsport-usa&amp;store_cat=0&amp;store_name=funsportusa&amp;_oac=1&amp;_nkw=radiator&amp;rt=nc&amp;LH_BIN=1&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=3</t>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=eccppautoparts&amp;store_name=eccppautoparts&amp;_oac=1&amp;_nkw=ac%20compressor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=eccppautoparts&amp;store_name=eccppautoparts&amp;_oac=1&amp;_nkw=ac%20compressor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=eccppautoparts&amp;store_name=eccppautoparts&amp;_oac=1&amp;_nkw=ac%20compressor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=5</t>
         </is>
       </c>
     </row>

--- a/02.crawler/03.eBay/2.Search/1.page.xlsx
+++ b/02.crawler/03.eBay/2.Search/1.page.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -461,14 +461,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=eccppautoparts&amp;store_name=eccppautoparts&amp;_oac=1&amp;_nkw=ac%20compressor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=1</t>
+          <t>https://www.ebay.co.uk/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=spares-hut&amp;store_cat=0&amp;store_name=allautopartsonline&amp;_oac=1&amp;_nkw=mirror&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=GB&amp;_stpos=BS81QU&amp;_pgn=1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -476,14 +476,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=eccppautoparts&amp;store_name=eccppautoparts&amp;_oac=1&amp;_nkw=ac%20compressor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=2</t>
+          <t>https://www.ebay.co.uk/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=spares-hut&amp;store_cat=0&amp;store_name=allautopartsonline&amp;_oac=1&amp;_nkw=mirror&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=GB&amp;_stpos=BS81QU&amp;_pgn=2</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -491,37 +491,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=eccppautoparts&amp;store_name=eccppautoparts&amp;_oac=1&amp;_nkw=ac%20compressor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=3</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=eccppautoparts&amp;store_name=eccppautoparts&amp;_oac=1&amp;_nkw=ac%20compressor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=4</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=eccppautoparts&amp;store_name=eccppautoparts&amp;_oac=1&amp;_nkw=ac%20compressor&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=US&amp;_stpos=91710&amp;_pgn=5</t>
+          <t>https://www.ebay.co.uk/sch/i.html?_dkr=1&amp;iconV2Request=true&amp;_blrs=recall_filtering&amp;_ssn=spares-hut&amp;store_cat=0&amp;store_name=allautopartsonline&amp;_oac=1&amp;_nkw=mirror&amp;orig_cvip=true&amp;_sop=16&amp;_ipg=240&amp;_udlo=&amp;_udhi=&amp;_ul=GB&amp;_stpos=BS81QU&amp;_pgn=3</t>
         </is>
       </c>
     </row>
